--- a/public/template_verifikator.xlsx
+++ b/public/template_verifikator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C15B4B-FA42-4E67-A379-A9EF1921F5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5743105-5415-4066-BE55-3428D2E82813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{FD37C477-75F5-457C-90DB-C3B8AD926BE6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="280">
   <si>
     <t>Wikan Sakarinto, S.T., M.Sc., Ph.D.</t>
   </si>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>ang</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549B1169-3AE7-47C2-8048-ADBB79311E45}">
-  <dimension ref="A1:C354"/>
+  <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,8 +1242,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20528658</v>
+      <c r="A2" t="s">
+        <v>279</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -2274,2856 +2277,2900 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>60728389</v>
+        <v>20212908</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>20339066</v>
+        <v>20279827</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>69851465</v>
+        <v>20361045</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>30109301</v>
+        <v>20362773</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>50304992</v>
+        <v>60728389</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>50305267</v>
+        <v>20339066</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>40500380</v>
+        <v>69851465</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>20231741</v>
+        <v>30109301</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20223114</v>
+        <v>50304992</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20523758</v>
+        <v>50305267</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>20523760</v>
+        <v>40500380</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>10259915</v>
+        <v>20231741</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>10214028</v>
+        <v>20223114</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>30402083</v>
+        <v>20523758</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>20330038</v>
+        <v>20523760</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>20314900</v>
+        <v>10259915</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>30105216</v>
+        <v>10214028</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>10214027</v>
+        <v>30402083</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10259665</v>
+        <v>20330038</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>20212921</v>
+        <v>20314900</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>20246369</v>
+        <v>30105216</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>60726515</v>
+        <v>10214027</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>10260807</v>
+        <v>10259665</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>10261695</v>
+        <v>20212921</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>30109724</v>
+        <v>20246369</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>30108420</v>
+        <v>60726515</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>69968899</v>
+        <v>10260807</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>20360275</v>
+        <v>10261695</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>10812426</v>
+        <v>30109724</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10804184</v>
+        <v>30108420</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>10211227</v>
+        <v>69968899</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>30311402</v>
+        <v>20360275</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>30312532</v>
+        <v>10812426</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>69773566</v>
+        <v>10804184</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>10400262</v>
+        <v>10211227</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>69965401</v>
+        <v>30311402</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>30405265</v>
+        <v>30312532</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>30400114</v>
+        <v>69773566</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>20314863</v>
+        <v>10400262</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>20341390</v>
+        <v>69965401</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>20330454</v>
+        <v>30405265</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>10105338</v>
+        <v>30400114</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>10105626</v>
+        <v>20314863</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>20300690</v>
+        <v>20341390</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>20300693</v>
+        <v>20330454</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>69946696</v>
+        <v>10105338</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>20223131</v>
+        <v>10105626</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>20534176</v>
+        <v>20300690</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>20508448</v>
+        <v>20300693</v>
       </c>
       <c r="B144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>20229659</v>
+        <v>69946696</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>20217367</v>
+        <v>20223131</v>
       </c>
       <c r="B146" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>60725432</v>
+        <v>20534176</v>
       </c>
       <c r="B147" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>20331126</v>
+        <v>20508448</v>
       </c>
       <c r="B148" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>20361510</v>
+        <v>20229659</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>20360896</v>
+        <v>20217367</v>
       </c>
       <c r="B150" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>20214818</v>
+        <v>60725432</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="C151" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>20214824</v>
+        <v>20331126</v>
       </c>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="C152" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>20328126</v>
+        <v>20361510</v>
       </c>
       <c r="B153" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C153" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>20328108</v>
+        <v>20360896</v>
       </c>
       <c r="B154" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C154" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>20252207</v>
+        <v>20214818</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C155" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>69727436</v>
+        <v>20214824</v>
       </c>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C156" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>50308344</v>
+        <v>20328126</v>
       </c>
       <c r="B157" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C157" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>69888491</v>
+        <v>20328108</v>
       </c>
       <c r="B158" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C158" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>20223110</v>
+        <v>20252207</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C159" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>20237465</v>
+        <v>69727436</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C160" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>20534784</v>
+        <v>50308344</v>
       </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C161" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>20534783</v>
+        <v>69888491</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C162" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>20232491</v>
+        <v>20223110</v>
       </c>
       <c r="B163" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C163" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>20341574</v>
+        <v>20237465</v>
       </c>
       <c r="B164" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C164" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>20339040</v>
+        <v>20534784</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C165" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>20517759</v>
+        <v>20534783</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C166" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>20517742</v>
+        <v>20232491</v>
       </c>
       <c r="B167" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>20533814</v>
+        <v>20341574</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>20533643</v>
+        <v>20339040</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>20507704</v>
+        <v>20517759</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>20507700</v>
+        <v>20517742</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C171" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>20217795</v>
+        <v>20533814</v>
       </c>
       <c r="B172" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>20330119</v>
+        <v>20533643</v>
       </c>
       <c r="B173" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>20237410</v>
+        <v>20507704</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>69734356</v>
+        <v>20507700</v>
       </c>
       <c r="B175" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>10601343</v>
+        <v>20217795</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>10603684</v>
+        <v>20330119</v>
       </c>
       <c r="B177" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>20401192</v>
+        <v>20237410</v>
       </c>
       <c r="B178" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>20401137</v>
+        <v>69734356</v>
       </c>
       <c r="B179" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="C179" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>20251887</v>
+        <v>10601343</v>
       </c>
       <c r="B180" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="C180" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>20279927</v>
+        <v>10603684</v>
       </c>
       <c r="B181" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>20360363</v>
+        <v>20401192</v>
       </c>
       <c r="B182" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="C182" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>20328945</v>
+        <v>20401137</v>
       </c>
       <c r="B183" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="C183" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>10303913</v>
+        <v>20251887</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="C184" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>10303507</v>
+        <v>20279927</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="C185" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>20341442</v>
+        <v>20360363</v>
       </c>
       <c r="B186" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="C186" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>20330118</v>
+        <v>20328945</v>
       </c>
       <c r="B187" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="C187" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>40310796</v>
+        <v>10303913</v>
       </c>
       <c r="B188" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="C188" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>69948040</v>
+        <v>10303507</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="C189" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>20217366</v>
+        <v>20341442</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C190" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>20533813</v>
+        <v>20330118</v>
       </c>
       <c r="B191" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C191" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>20533816</v>
+        <v>40310796</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C192" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>10609726</v>
+        <v>69948040</v>
       </c>
       <c r="B193" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C193" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>69849370</v>
+        <v>20217366</v>
       </c>
       <c r="B194" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C194" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>20340348</v>
+        <v>20533813</v>
       </c>
       <c r="B195" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C195" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>20321425</v>
+        <v>20533816</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C196" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>20554341</v>
+        <v>10609726</v>
       </c>
       <c r="B197" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C197" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>20521707</v>
+        <v>69849370</v>
       </c>
       <c r="B198" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C198" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>20542509</v>
+        <v>20340348</v>
       </c>
       <c r="B199" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C199" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>20537286</v>
+        <v>20321425</v>
       </c>
       <c r="B200" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C200" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>69754002</v>
+        <v>20554341</v>
       </c>
       <c r="B201" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C201" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>69862566</v>
+        <v>20521707</v>
       </c>
       <c r="B202" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C202" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>20584033</v>
+        <v>20542509</v>
       </c>
       <c r="B203" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C203" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>20546877</v>
+        <v>20537286</v>
       </c>
       <c r="B204" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C204" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>20219159</v>
+        <v>69754002</v>
       </c>
       <c r="B205" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C205" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>20238571</v>
+        <v>69862566</v>
       </c>
       <c r="B206" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C206" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>40300604</v>
+        <v>20584033</v>
       </c>
       <c r="B207" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C207" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>40601490</v>
+        <v>20546877</v>
       </c>
       <c r="B208" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C208" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>40601491</v>
+        <v>20219159</v>
       </c>
       <c r="B209" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C209" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>20523754</v>
+        <v>20238571</v>
       </c>
       <c r="B210" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C210" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>20549236</v>
+        <v>40300604</v>
       </c>
       <c r="B211" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C211" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>20217803</v>
+        <v>40601490</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>20252208</v>
+        <v>40601491</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>20309531</v>
+        <v>20523754</v>
       </c>
       <c r="B214" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>20328153</v>
+        <v>20549236</v>
       </c>
       <c r="B215" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>10211075</v>
+        <v>20217803</v>
       </c>
       <c r="B216" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="C216" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>10211061</v>
+        <v>20252208</v>
       </c>
       <c r="B217" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="C217" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>69756197</v>
+        <v>20309531</v>
       </c>
       <c r="B218" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="C218" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>20319296</v>
+        <v>20328153</v>
       </c>
       <c r="B219" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="C219" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>10261412</v>
+        <v>10211075</v>
       </c>
       <c r="B220" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C220" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>10211253</v>
+        <v>10211061</v>
       </c>
       <c r="B221" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C221" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>20600593</v>
+        <v>69756197</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>20616368</v>
+        <v>20319296</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>20328971</v>
+        <v>10261412</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>20328962</v>
+        <v>10211253</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>20400449</v>
+        <v>20600593</v>
       </c>
       <c r="B226" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>20402089</v>
+        <v>20616368</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>20214984</v>
+        <v>20328971</v>
       </c>
       <c r="B228" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>20214822</v>
+        <v>20328962</v>
       </c>
       <c r="B229" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>20540110</v>
+        <v>20400449</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>20500411</v>
+        <v>20402089</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>20547845</v>
+        <v>20214984</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>20554703</v>
+        <v>20214822</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>69899478</v>
+        <v>20540110</v>
       </c>
       <c r="B234" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>10260608</v>
+        <v>20500411</v>
       </c>
       <c r="B235" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>69759278</v>
+        <v>20547845</v>
       </c>
       <c r="B236" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>20606250</v>
+        <v>20554703</v>
       </c>
       <c r="B237" t="s">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>20622306</v>
+        <v>69899478</v>
       </c>
       <c r="B238" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C238" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>20330334</v>
+        <v>10260608</v>
       </c>
       <c r="B239" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C239" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>20330307</v>
+        <v>69759278</v>
       </c>
       <c r="B240" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C240" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>50302299</v>
+        <v>20606250</v>
       </c>
       <c r="B241" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C241" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>20548802</v>
+        <v>20622306</v>
       </c>
       <c r="B242" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C242" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>20522636</v>
+        <v>20330334</v>
       </c>
       <c r="B243" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C243" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>20312897</v>
+        <v>20330307</v>
       </c>
       <c r="B244" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C244" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>20313042</v>
+        <v>50302299</v>
       </c>
       <c r="B245" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C245" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>20501720</v>
+        <v>20548802</v>
       </c>
       <c r="B246" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C246" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>20570902</v>
+        <v>20522636</v>
       </c>
       <c r="B247" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C247" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>20532198</v>
+        <v>20312897</v>
       </c>
       <c r="B248" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C248" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>20549504</v>
+        <v>20313042</v>
       </c>
       <c r="B249" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C249" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>10212136</v>
+        <v>20501720</v>
       </c>
       <c r="B250" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C250" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>10211592</v>
+        <v>20570902</v>
       </c>
       <c r="B251" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C251" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>20209208</v>
+        <v>20532198</v>
       </c>
       <c r="B252" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C252" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>20253861</v>
+        <v>20549504</v>
       </c>
       <c r="B253" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C253" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>40203629</v>
+        <v>10212136</v>
       </c>
       <c r="B254" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C254" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>20400432</v>
+        <v>10211592</v>
       </c>
       <c r="B255" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>20411873</v>
+        <v>20209208</v>
       </c>
       <c r="B256" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>20308417</v>
+        <v>20253861</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>20401194</v>
+        <v>40203629</v>
       </c>
       <c r="B258" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>20606898</v>
+        <v>20400432</v>
       </c>
       <c r="B259" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>20614509</v>
+        <v>20411873</v>
       </c>
       <c r="B260" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>20402093</v>
+        <v>20308417</v>
       </c>
       <c r="B261" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>20404182</v>
+        <v>20401194</v>
       </c>
       <c r="B262" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>20407419</v>
+        <v>20606898</v>
       </c>
       <c r="B263" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="C263" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>20402133</v>
+        <v>20614509</v>
       </c>
       <c r="B264" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="C264" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>20210716</v>
+        <v>20402093</v>
       </c>
       <c r="B265" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="C265" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>20253319</v>
+        <v>20404182</v>
       </c>
       <c r="B266" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>69756184</v>
+        <v>20407419</v>
       </c>
       <c r="B267" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C267" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>20255776</v>
+        <v>20402133</v>
       </c>
       <c r="B268" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C268" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>20209201</v>
+        <v>20210716</v>
       </c>
       <c r="B269" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C269" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>20262128</v>
+        <v>20253319</v>
       </c>
       <c r="B270" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C270" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>20525592</v>
+        <v>69756184</v>
       </c>
       <c r="B271" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C271" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>20525627</v>
+        <v>20255776</v>
       </c>
       <c r="B272" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C272" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>20308436</v>
+        <v>20209201</v>
       </c>
       <c r="B273" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C273" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>20312177</v>
+        <v>20262128</v>
       </c>
       <c r="B274" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C274" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>20216007</v>
+        <v>20525592</v>
       </c>
       <c r="B275" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C275" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>20216003</v>
+        <v>20525627</v>
       </c>
       <c r="B276" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C276" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>20235643</v>
+        <v>20308436</v>
       </c>
       <c r="B277" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C277" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>20208396</v>
+        <v>20312177</v>
       </c>
       <c r="B278" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C278" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>30102474</v>
+        <v>20216007</v>
       </c>
       <c r="B279" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C279" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>20404181</v>
+        <v>20216003</v>
       </c>
       <c r="B280" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C280" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>20403285</v>
+        <v>20235643</v>
       </c>
       <c r="B281" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C281" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>20212918</v>
+        <v>20208396</v>
       </c>
       <c r="B282" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C282" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>10205204</v>
+        <v>30102474</v>
       </c>
       <c r="B283" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C283" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>10205190</v>
+        <v>20404181</v>
       </c>
       <c r="B284" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C284" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>20402787</v>
+        <v>20403285</v>
       </c>
       <c r="B285" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C285" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>20409725</v>
+        <v>20212918</v>
       </c>
       <c r="B286" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C286" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>20227940</v>
+        <v>10205204</v>
       </c>
       <c r="B287" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C287" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>20267644</v>
+        <v>10205190</v>
       </c>
       <c r="B288" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C288" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>50304779</v>
+        <v>20402787</v>
       </c>
       <c r="B289" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C289" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>20100166</v>
+        <v>20409725</v>
       </c>
       <c r="B290" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C290" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>20101648</v>
+        <v>20227940</v>
       </c>
       <c r="B291" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C291" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>10308093</v>
+        <v>20267644</v>
       </c>
       <c r="B292" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C292" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>60726235</v>
+        <v>50304779</v>
       </c>
       <c r="B293" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C293" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>10211092</v>
+        <v>20100166</v>
       </c>
       <c r="B294" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C294" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>10259305</v>
+        <v>20101648</v>
       </c>
       <c r="B295" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C295" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>40307845</v>
+        <v>10308093</v>
       </c>
       <c r="B296" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C296" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>241</v>
+      <c r="A297">
+        <v>60726235</v>
       </c>
       <c r="B297" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C297" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>10102278</v>
+        <v>10211092</v>
       </c>
       <c r="B298" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C298" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>20574699</v>
+        <v>10259305</v>
       </c>
       <c r="B299" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C299" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>20511947</v>
+        <v>40307845</v>
       </c>
       <c r="B300" t="s">
+        <v>239</v>
+      </c>
+      <c r="C300" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>241</v>
+      </c>
+      <c r="B301" t="s">
         <v>242</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C301" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>20320251</v>
-      </c>
-      <c r="B301" t="s">
-        <v>244</v>
-      </c>
-      <c r="C301" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>20325272</v>
+        <v>10102278</v>
       </c>
       <c r="B302" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C302" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>20303942</v>
+        <v>20574699</v>
       </c>
       <c r="B303" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="C303" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>20402840</v>
+        <v>20511947</v>
       </c>
       <c r="B304" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="C304" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>20328981</v>
+        <v>20320251</v>
       </c>
       <c r="B305" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="C305" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>20321847</v>
+        <v>20325272</v>
       </c>
       <c r="B306" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="C306" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>60300189</v>
+        <v>20303942</v>
       </c>
       <c r="B307" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="C307" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>60400380</v>
+        <v>20402840</v>
       </c>
       <c r="B308" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="C308" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>10494574</v>
+        <v>20328981</v>
       </c>
       <c r="B309" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="C309" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>10402106</v>
+        <v>20321847</v>
       </c>
       <c r="B310" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="C310" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>20541264</v>
+        <v>60300189</v>
       </c>
       <c r="B311" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C311" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>20505033</v>
+        <v>60400380</v>
       </c>
       <c r="B312" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C312" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>30203491</v>
+        <v>10494574</v>
       </c>
       <c r="B313" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C313" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>20534398</v>
+        <v>10402106</v>
       </c>
       <c r="B314" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C314" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>20519278</v>
+        <v>20541264</v>
       </c>
       <c r="B315" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C315" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>69852822</v>
+        <v>20505033</v>
       </c>
       <c r="B316" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C316" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>20268734</v>
+        <v>30203491</v>
       </c>
       <c r="B317" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C317" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>69900547</v>
+        <v>20534398</v>
       </c>
       <c r="B318" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C318" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>20317482</v>
+        <v>20519278</v>
       </c>
       <c r="B319" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C319" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>20315656</v>
+        <v>69852822</v>
       </c>
       <c r="B320" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C320" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>20307716</v>
+        <v>20268734</v>
       </c>
       <c r="B321" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C321" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>20237434</v>
+        <v>69900547</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="C322" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>20237408</v>
+        <v>20317482</v>
       </c>
       <c r="B323" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="C323" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>20307703</v>
+        <v>20315656</v>
       </c>
       <c r="B324" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="C324" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>275</v>
+      <c r="A325">
+        <v>20307716</v>
       </c>
       <c r="B325" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="C325" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>40401540</v>
+        <v>20237434</v>
       </c>
       <c r="B326" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="C326" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>40403566</v>
+        <v>20237408</v>
       </c>
       <c r="B327" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="C327" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>20280609</v>
+        <v>20307703</v>
       </c>
       <c r="B328" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>20247197</v>
+      <c r="A329" t="s">
+        <v>275</v>
       </c>
       <c r="B329" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="C329" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>20360536</v>
+        <v>40401540</v>
       </c>
       <c r="B330" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C330" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>20311044</v>
+        <v>40403566</v>
       </c>
       <c r="B331" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C331" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>20607823</v>
+        <v>20280609</v>
       </c>
       <c r="B332" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="C332" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>69772584</v>
+        <v>20247197</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="C333" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>20247198</v>
+        <v>20360536</v>
       </c>
       <c r="B334" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="C334" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>20268221</v>
+        <v>20311044</v>
       </c>
       <c r="B335" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="C335" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>50100289</v>
+        <v>20607823</v>
       </c>
       <c r="B336" t="s">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="C336" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>50103727</v>
+        <v>69772584</v>
       </c>
       <c r="B337" t="s">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="C337" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>30103487</v>
+        <v>20247198</v>
       </c>
       <c r="B338" t="s">
-        <v>263</v>
+        <v>8</v>
       </c>
       <c r="C338" t="s">
-        <v>264</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>10220307</v>
+        <v>20268221</v>
       </c>
       <c r="B339" t="s">
-        <v>265</v>
+        <v>8</v>
       </c>
       <c r="C339" t="s">
-        <v>266</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>10260919</v>
+        <v>50100289</v>
       </c>
       <c r="B340" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C340" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>60729364</v>
+        <v>50103727</v>
       </c>
       <c r="B341" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C341" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>20606819</v>
+        <v>30103487</v>
       </c>
       <c r="B342" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C342" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>20607491</v>
+        <v>10220307</v>
       </c>
       <c r="B343" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C343" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>20607873</v>
+        <v>10260919</v>
       </c>
       <c r="B344" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C344" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>20217802</v>
+        <v>60729364</v>
       </c>
       <c r="B345" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C345" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>69934151</v>
+        <v>20606819</v>
       </c>
       <c r="B346" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C346" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>20607837</v>
+        <v>20607491</v>
       </c>
       <c r="B347" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C347" t="s">
-        <v>1</v>
+        <v>270</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>20607834</v>
+        <v>20607873</v>
       </c>
       <c r="B348" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C348" t="s">
-        <v>1</v>
+        <v>270</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>20228539</v>
+        <v>20217802</v>
       </c>
       <c r="B349" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C349" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>20206225</v>
+        <v>69934151</v>
       </c>
       <c r="B350" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C350" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>20339165</v>
+        <v>20607837</v>
       </c>
       <c r="B351" t="s">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="C351" t="s">
-        <v>272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>20341206</v>
+        <v>20607834</v>
       </c>
       <c r="B352" t="s">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="C352" t="s">
-        <v>272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>50203317</v>
+        <v>20228539</v>
       </c>
       <c r="B353" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C353" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
+        <v>20206225</v>
+      </c>
+      <c r="B354" t="s">
+        <v>271</v>
+      </c>
+      <c r="C354" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>20339165</v>
+      </c>
+      <c r="B355" t="s">
+        <v>271</v>
+      </c>
+      <c r="C355" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>20341206</v>
+      </c>
+      <c r="B356" t="s">
+        <v>271</v>
+      </c>
+      <c r="C356" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>50203317</v>
+      </c>
+      <c r="B357" t="s">
+        <v>273</v>
+      </c>
+      <c r="C357" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
         <v>50219548</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B358" t="s">
         <v>273</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C358" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C354">
-    <sortCondition ref="B2:B354"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C358">
+    <sortCondition ref="B2:B358"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/template_verifikator.xlsx
+++ b/public/template_verifikator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5743105-5415-4066-BE55-3428D2E82813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F26CAB-8C35-4CAC-8B82-EF6CD9BB56EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{FD37C477-75F5-457C-90DB-C3B8AD926BE6}"/>
   </bookViews>
@@ -522,12 +522,6 @@
     <t>Ifras Farhan</t>
   </si>
   <si>
-    <t>Iis Nurharyani, M.M.Pd</t>
-  </si>
-  <si>
-    <t>Iis Nurharyani</t>
-  </si>
-  <si>
     <t>Imran, S. Kom., MT.</t>
   </si>
   <si>
@@ -865,6 +859,12 @@
   </si>
   <si>
     <t>ang</t>
+  </si>
+  <si>
+    <t>Iis Nurhayani, M.M.Pd</t>
+  </si>
+  <si>
+    <t>Iis Nurhayani</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549B1169-3AE7-47C2-8048-ADBB79311E45}">
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95:C99"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,18 +1232,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" t="s">
         <v>276</v>
-      </c>
-      <c r="B1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -3391,10 +3391,10 @@
         <v>10609726</v>
       </c>
       <c r="B197" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="C197" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3402,10 +3402,10 @@
         <v>69849370</v>
       </c>
       <c r="B198" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C198" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3413,10 +3413,10 @@
         <v>20340348</v>
       </c>
       <c r="B199" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C199" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3424,10 +3424,10 @@
         <v>20321425</v>
       </c>
       <c r="B200" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C200" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3435,10 +3435,10 @@
         <v>20554341</v>
       </c>
       <c r="B201" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C201" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3446,10 +3446,10 @@
         <v>20521707</v>
       </c>
       <c r="B202" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C202" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3457,10 +3457,10 @@
         <v>20542509</v>
       </c>
       <c r="B203" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C203" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3468,10 +3468,10 @@
         <v>20537286</v>
       </c>
       <c r="B204" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C204" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3479,10 +3479,10 @@
         <v>69754002</v>
       </c>
       <c r="B205" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C205" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3490,10 +3490,10 @@
         <v>69862566</v>
       </c>
       <c r="B206" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C206" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3501,10 +3501,10 @@
         <v>20584033</v>
       </c>
       <c r="B207" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C207" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3512,10 +3512,10 @@
         <v>20546877</v>
       </c>
       <c r="B208" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C208" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3523,10 +3523,10 @@
         <v>20219159</v>
       </c>
       <c r="B209" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C209" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3534,10 +3534,10 @@
         <v>20238571</v>
       </c>
       <c r="B210" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C210" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3545,10 +3545,10 @@
         <v>40300604</v>
       </c>
       <c r="B211" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C211" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3556,10 +3556,10 @@
         <v>40601490</v>
       </c>
       <c r="B212" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C212" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3567,10 +3567,10 @@
         <v>40601491</v>
       </c>
       <c r="B213" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C213" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3578,10 +3578,10 @@
         <v>20523754</v>
       </c>
       <c r="B214" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C214" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3589,10 +3589,10 @@
         <v>20549236</v>
       </c>
       <c r="B215" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C215" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3644,10 +3644,10 @@
         <v>10211075</v>
       </c>
       <c r="B220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C220" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3655,10 +3655,10 @@
         <v>10211061</v>
       </c>
       <c r="B221" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C221" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3666,10 +3666,10 @@
         <v>69756197</v>
       </c>
       <c r="B222" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C222" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3677,10 +3677,10 @@
         <v>20319296</v>
       </c>
       <c r="B223" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C223" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3688,10 +3688,10 @@
         <v>10261412</v>
       </c>
       <c r="B224" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C224" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3699,10 +3699,10 @@
         <v>10211253</v>
       </c>
       <c r="B225" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C225" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3754,10 @@
         <v>20400449</v>
       </c>
       <c r="B230" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C230" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3765,10 @@
         <v>20402089</v>
       </c>
       <c r="B231" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C231" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>20214984</v>
       </c>
       <c r="B232" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C232" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3787,10 @@
         <v>20214822</v>
       </c>
       <c r="B233" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C233" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3842,10 +3842,10 @@
         <v>69899478</v>
       </c>
       <c r="B238" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C238" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3853,10 +3853,10 @@
         <v>10260608</v>
       </c>
       <c r="B239" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C239" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3864,10 +3864,10 @@
         <v>69759278</v>
       </c>
       <c r="B240" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C240" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3875,10 +3875,10 @@
         <v>20606250</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C241" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3886,10 +3886,10 @@
         <v>20622306</v>
       </c>
       <c r="B242" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C242" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3897,10 +3897,10 @@
         <v>20330334</v>
       </c>
       <c r="B243" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C243" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3908,10 +3908,10 @@
         <v>20330307</v>
       </c>
       <c r="B244" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C244" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3919,10 +3919,10 @@
         <v>50302299</v>
       </c>
       <c r="B245" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C245" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3930,10 +3930,10 @@
         <v>20548802</v>
       </c>
       <c r="B246" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C246" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3941,10 +3941,10 @@
         <v>20522636</v>
       </c>
       <c r="B247" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C247" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3952,10 +3952,10 @@
         <v>20312897</v>
       </c>
       <c r="B248" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C248" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3963,10 +3963,10 @@
         <v>20313042</v>
       </c>
       <c r="B249" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C249" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3974,10 +3974,10 @@
         <v>20501720</v>
       </c>
       <c r="B250" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C250" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3985,10 +3985,10 @@
         <v>20570902</v>
       </c>
       <c r="B251" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C251" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3996,10 +3996,10 @@
         <v>20532198</v>
       </c>
       <c r="B252" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C252" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4007,10 +4007,10 @@
         <v>20549504</v>
       </c>
       <c r="B253" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C253" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4018,10 +4018,10 @@
         <v>10212136</v>
       </c>
       <c r="B254" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C254" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4029,10 +4029,10 @@
         <v>10211592</v>
       </c>
       <c r="B255" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C255" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4040,10 +4040,10 @@
         <v>20209208</v>
       </c>
       <c r="B256" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C256" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4051,10 +4051,10 @@
         <v>20253861</v>
       </c>
       <c r="B257" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C257" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4062,10 +4062,10 @@
         <v>40203629</v>
       </c>
       <c r="B258" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C258" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,10 +4161,10 @@
         <v>20407419</v>
       </c>
       <c r="B267" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C267" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,10 +4172,10 @@
         <v>20402133</v>
       </c>
       <c r="B268" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C268" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4183,10 +4183,10 @@
         <v>20210716</v>
       </c>
       <c r="B269" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C269" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4194,10 +4194,10 @@
         <v>20253319</v>
       </c>
       <c r="B270" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C270" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4205,10 +4205,10 @@
         <v>69756184</v>
       </c>
       <c r="B271" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C271" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4216,10 +4216,10 @@
         <v>20255776</v>
       </c>
       <c r="B272" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C272" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4227,10 +4227,10 @@
         <v>20209201</v>
       </c>
       <c r="B273" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C273" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4238,10 +4238,10 @@
         <v>20262128</v>
       </c>
       <c r="B274" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C274" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4249,10 +4249,10 @@
         <v>20525592</v>
       </c>
       <c r="B275" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C275" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,10 +4260,10 @@
         <v>20525627</v>
       </c>
       <c r="B276" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C276" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,10 +4271,10 @@
         <v>20308436</v>
       </c>
       <c r="B277" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C277" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,10 +4282,10 @@
         <v>20312177</v>
       </c>
       <c r="B278" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C278" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,10 +4293,10 @@
         <v>20216007</v>
       </c>
       <c r="B279" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C279" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4304,10 +4304,10 @@
         <v>20216003</v>
       </c>
       <c r="B280" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C280" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4315,10 +4315,10 @@
         <v>20235643</v>
       </c>
       <c r="B281" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C281" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -4326,10 +4326,10 @@
         <v>20208396</v>
       </c>
       <c r="B282" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C282" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -4337,10 +4337,10 @@
         <v>30102474</v>
       </c>
       <c r="B283" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C283" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -4348,10 +4348,10 @@
         <v>20404181</v>
       </c>
       <c r="B284" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C284" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -4359,10 +4359,10 @@
         <v>20403285</v>
       </c>
       <c r="B285" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C285" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -4370,10 +4370,10 @@
         <v>20212918</v>
       </c>
       <c r="B286" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C286" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -4381,10 +4381,10 @@
         <v>10205204</v>
       </c>
       <c r="B287" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C287" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -4392,10 +4392,10 @@
         <v>10205190</v>
       </c>
       <c r="B288" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C288" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -4403,10 +4403,10 @@
         <v>20402787</v>
       </c>
       <c r="B289" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C289" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -4414,10 +4414,10 @@
         <v>20409725</v>
       </c>
       <c r="B290" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C290" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -4425,10 +4425,10 @@
         <v>20227940</v>
       </c>
       <c r="B291" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C291" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -4436,10 +4436,10 @@
         <v>20267644</v>
       </c>
       <c r="B292" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C292" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -4447,10 +4447,10 @@
         <v>50304779</v>
       </c>
       <c r="B293" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C293" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -4458,10 +4458,10 @@
         <v>20100166</v>
       </c>
       <c r="B294" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C294" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -4469,10 +4469,10 @@
         <v>20101648</v>
       </c>
       <c r="B295" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C295" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -4480,10 +4480,10 @@
         <v>10308093</v>
       </c>
       <c r="B296" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C296" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -4491,10 +4491,10 @@
         <v>60726235</v>
       </c>
       <c r="B297" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C297" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -4502,10 +4502,10 @@
         <v>10211092</v>
       </c>
       <c r="B298" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C298" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -4513,10 +4513,10 @@
         <v>10259305</v>
       </c>
       <c r="B299" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C299" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -4524,21 +4524,21 @@
         <v>40307845</v>
       </c>
       <c r="B300" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C300" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>239</v>
+      </c>
+      <c r="B301" t="s">
+        <v>240</v>
+      </c>
+      <c r="C301" t="s">
         <v>241</v>
-      </c>
-      <c r="B301" t="s">
-        <v>242</v>
-      </c>
-      <c r="C301" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -4546,10 +4546,10 @@
         <v>10102278</v>
       </c>
       <c r="B302" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C302" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,10 +4557,10 @@
         <v>20574699</v>
       </c>
       <c r="B303" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C303" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -4568,10 +4568,10 @@
         <v>20511947</v>
       </c>
       <c r="B304" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C304" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4579,10 +4579,10 @@
         <v>20320251</v>
       </c>
       <c r="B305" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C305" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -4590,10 +4590,10 @@
         <v>20325272</v>
       </c>
       <c r="B306" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C306" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4645,10 +4645,10 @@
         <v>60300189</v>
       </c>
       <c r="B311" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C311" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4656,10 +4656,10 @@
         <v>60400380</v>
       </c>
       <c r="B312" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C312" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4667,10 +4667,10 @@
         <v>10494574</v>
       </c>
       <c r="B313" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C313" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4678,10 +4678,10 @@
         <v>10402106</v>
       </c>
       <c r="B314" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C314" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4689,10 +4689,10 @@
         <v>20541264</v>
       </c>
       <c r="B315" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C315" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4700,10 +4700,10 @@
         <v>20505033</v>
       </c>
       <c r="B316" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C316" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4711,10 +4711,10 @@
         <v>30203491</v>
       </c>
       <c r="B317" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C317" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4722,10 +4722,10 @@
         <v>20534398</v>
       </c>
       <c r="B318" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C318" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4733,10 +4733,10 @@
         <v>20519278</v>
       </c>
       <c r="B319" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C319" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4744,10 +4744,10 @@
         <v>69852822</v>
       </c>
       <c r="B320" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C320" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4755,10 +4755,10 @@
         <v>20268734</v>
       </c>
       <c r="B321" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C321" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4766,10 +4766,10 @@
         <v>69900547</v>
       </c>
       <c r="B322" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C322" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4777,10 +4777,10 @@
         <v>20317482</v>
       </c>
       <c r="B323" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C323" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4788,10 +4788,10 @@
         <v>20315656</v>
       </c>
       <c r="B324" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C324" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4799,10 +4799,10 @@
         <v>20307716</v>
       </c>
       <c r="B325" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C325" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B329" t="s">
         <v>17</v>
@@ -4854,10 +4854,10 @@
         <v>40401540</v>
       </c>
       <c r="B330" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C330" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4865,10 +4865,10 @@
         <v>40403566</v>
       </c>
       <c r="B331" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C331" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4876,10 +4876,10 @@
         <v>20280609</v>
       </c>
       <c r="B332" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C332" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,10 +4887,10 @@
         <v>20247197</v>
       </c>
       <c r="B333" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C333" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4898,10 +4898,10 @@
         <v>20360536</v>
       </c>
       <c r="B334" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C334" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4909,10 +4909,10 @@
         <v>20311044</v>
       </c>
       <c r="B335" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C335" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,10 +4964,10 @@
         <v>50100289</v>
       </c>
       <c r="B340" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C340" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4975,10 +4975,10 @@
         <v>50103727</v>
       </c>
       <c r="B341" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C341" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,10 +4986,10 @@
         <v>30103487</v>
       </c>
       <c r="B342" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C342" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,10 +4997,10 @@
         <v>10220307</v>
       </c>
       <c r="B343" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C343" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,10 +5008,10 @@
         <v>10260919</v>
       </c>
       <c r="B344" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C344" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -5019,10 +5019,10 @@
         <v>60729364</v>
       </c>
       <c r="B345" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C345" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5030,10 +5030,10 @@
         <v>20606819</v>
       </c>
       <c r="B346" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C346" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -5041,10 +5041,10 @@
         <v>20607491</v>
       </c>
       <c r="B347" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C347" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -5052,10 +5052,10 @@
         <v>20607873</v>
       </c>
       <c r="B348" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C348" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -5063,10 +5063,10 @@
         <v>20217802</v>
       </c>
       <c r="B349" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C349" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,10 +5074,10 @@
         <v>69934151</v>
       </c>
       <c r="B350" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C350" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,10 +5107,10 @@
         <v>20228539</v>
       </c>
       <c r="B353" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C353" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -5118,10 +5118,10 @@
         <v>20206225</v>
       </c>
       <c r="B354" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C354" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -5129,10 +5129,10 @@
         <v>20339165</v>
       </c>
       <c r="B355" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C355" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,10 +5140,10 @@
         <v>20341206</v>
       </c>
       <c r="B356" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C356" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -5151,10 +5151,10 @@
         <v>50203317</v>
       </c>
       <c r="B357" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C357" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -5162,10 +5162,10 @@
         <v>50219548</v>
       </c>
       <c r="B358" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C358" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_verifikator.xlsx
+++ b/public/template_verifikator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F26CAB-8C35-4CAC-8B82-EF6CD9BB56EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90DAFC1-872B-48D5-ACC7-8D556F0F8C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{FD37C477-75F5-457C-90DB-C3B8AD926BE6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="279">
   <si>
     <t>Wikan Sakarinto, S.T., M.Sc., Ph.D.</t>
   </si>
@@ -856,9 +856,6 @@
   </si>
   <si>
     <t>username</t>
-  </si>
-  <si>
-    <t>ang</t>
   </si>
   <si>
     <t>Iis Nurhayani, M.M.Pd</t>
@@ -1217,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549B1169-3AE7-47C2-8048-ADBB79311E45}">
-  <dimension ref="A1:C358"/>
+  <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,8 +1239,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>277</v>
+      <c r="A2">
+        <v>20528658</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1331,7 +1328,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20401315</v>
+        <v>20327586</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -1342,7 +1339,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20401304</v>
+        <v>20338281</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
@@ -1353,7 +1350,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20327586</v>
+        <v>20312897</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -1364,7 +1361,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20338281</v>
+        <v>20313042</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -3391,10 +3388,10 @@
         <v>10609726</v>
       </c>
       <c r="B197" t="s">
+        <v>277</v>
+      </c>
+      <c r="C197" t="s">
         <v>278</v>
-      </c>
-      <c r="C197" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3949,7 +3946,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>20312897</v>
+        <v>20501720</v>
       </c>
       <c r="B248" t="s">
         <v>203</v>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>20313042</v>
+        <v>20570902</v>
       </c>
       <c r="B249" t="s">
         <v>203</v>
@@ -3971,7 +3968,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>20501720</v>
+        <v>20614509</v>
       </c>
       <c r="B250" t="s">
         <v>203</v>
@@ -3982,7 +3979,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>20570902</v>
+        <v>20613439</v>
       </c>
       <c r="B251" t="s">
         <v>203</v>
@@ -4125,7 +4122,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>20614509</v>
+        <v>20402093</v>
       </c>
       <c r="B264" t="s">
         <v>27</v>
@@ -4136,7 +4133,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>20402093</v>
+        <v>20404182</v>
       </c>
       <c r="B265" t="s">
         <v>27</v>
@@ -4147,7 +4144,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>20404182</v>
+        <v>20401315</v>
       </c>
       <c r="B266" t="s">
         <v>27</v>
@@ -4158,18 +4155,18 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>20407419</v>
+        <v>20401304</v>
       </c>
       <c r="B267" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="C267" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>20402133</v>
+        <v>20407419</v>
       </c>
       <c r="B268" t="s">
         <v>211</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>20210716</v>
+        <v>20402133</v>
       </c>
       <c r="B269" t="s">
         <v>211</v>
@@ -4191,7 +4188,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>20253319</v>
+        <v>20210716</v>
       </c>
       <c r="B270" t="s">
         <v>211</v>
@@ -4202,18 +4199,18 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>69756184</v>
+        <v>20253319</v>
       </c>
       <c r="B271" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C271" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>20255776</v>
+        <v>69756184</v>
       </c>
       <c r="B272" t="s">
         <v>213</v>
@@ -4224,18 +4221,18 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>20209201</v>
+        <v>20255776</v>
       </c>
       <c r="B273" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C273" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>20262128</v>
+        <v>20209201</v>
       </c>
       <c r="B274" t="s">
         <v>215</v>
@@ -4246,7 +4243,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>20525592</v>
+        <v>20262128</v>
       </c>
       <c r="B275" t="s">
         <v>215</v>
@@ -4257,7 +4254,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>20525627</v>
+        <v>20525592</v>
       </c>
       <c r="B276" t="s">
         <v>215</v>
@@ -4268,18 +4265,18 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>20308436</v>
+        <v>20525627</v>
       </c>
       <c r="B277" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C277" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>20312177</v>
+        <v>20308436</v>
       </c>
       <c r="B278" t="s">
         <v>217</v>
@@ -4290,18 +4287,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>20216007</v>
+        <v>20312177</v>
       </c>
       <c r="B279" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C279" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>20216003</v>
+        <v>20216007</v>
       </c>
       <c r="B280" t="s">
         <v>219</v>
@@ -4312,7 +4309,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>20235643</v>
+        <v>20216003</v>
       </c>
       <c r="B281" t="s">
         <v>219</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>20208396</v>
+        <v>20235643</v>
       </c>
       <c r="B282" t="s">
         <v>219</v>
@@ -4334,29 +4331,29 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>30102474</v>
+        <v>20208396</v>
       </c>
       <c r="B283" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C283" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>20404181</v>
+        <v>30102474</v>
       </c>
       <c r="B284" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C284" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>20403285</v>
+        <v>20404181</v>
       </c>
       <c r="B285" t="s">
         <v>223</v>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>20212918</v>
+        <v>20403285</v>
       </c>
       <c r="B286" t="s">
         <v>223</v>
@@ -4378,18 +4375,18 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>10205204</v>
+        <v>20212918</v>
       </c>
       <c r="B287" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C287" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>10205190</v>
+        <v>10205204</v>
       </c>
       <c r="B288" t="s">
         <v>225</v>
@@ -4400,18 +4397,18 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>20402787</v>
+        <v>10205190</v>
       </c>
       <c r="B289" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C289" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>20409725</v>
+        <v>20402787</v>
       </c>
       <c r="B290" t="s">
         <v>227</v>
@@ -4422,7 +4419,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>20227940</v>
+        <v>20409725</v>
       </c>
       <c r="B291" t="s">
         <v>227</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>20267644</v>
+        <v>20227940</v>
       </c>
       <c r="B292" t="s">
         <v>227</v>
@@ -4444,29 +4441,29 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>50304779</v>
+        <v>20267644</v>
       </c>
       <c r="B293" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C293" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>20100166</v>
+        <v>50304779</v>
       </c>
       <c r="B294" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C294" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>20101648</v>
+        <v>20100166</v>
       </c>
       <c r="B295" t="s">
         <v>231</v>
@@ -4477,7 +4474,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>10308093</v>
+        <v>20101648</v>
       </c>
       <c r="B296" t="s">
         <v>231</v>
@@ -4488,29 +4485,29 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>60726235</v>
+        <v>10308093</v>
       </c>
       <c r="B297" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C297" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>10211092</v>
+        <v>60726235</v>
       </c>
       <c r="B298" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C298" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>10259305</v>
+        <v>10211092</v>
       </c>
       <c r="B299" t="s">
         <v>235</v>
@@ -4521,29 +4518,29 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
+        <v>10259305</v>
+      </c>
+      <c r="B300" t="s">
+        <v>235</v>
+      </c>
+      <c r="C300" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>40307845</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>237</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C301" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>239</v>
-      </c>
-      <c r="B301" t="s">
-        <v>240</v>
-      </c>
-      <c r="C301" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>10102278</v>
       </c>
       <c r="B302" t="s">
         <v>240</v>
@@ -4554,7 +4551,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>20574699</v>
+        <v>10102278</v>
       </c>
       <c r="B303" t="s">
         <v>240</v>
@@ -4565,7 +4562,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>20511947</v>
+        <v>20574699</v>
       </c>
       <c r="B304" t="s">
         <v>240</v>
@@ -4576,18 +4573,18 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>20320251</v>
+        <v>20511947</v>
       </c>
       <c r="B305" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C305" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>20325272</v>
+        <v>20320251</v>
       </c>
       <c r="B306" t="s">
         <v>242</v>
@@ -4598,18 +4595,18 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>20303942</v>
+        <v>20325272</v>
       </c>
       <c r="B307" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="C307" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>20402840</v>
+        <v>20303942</v>
       </c>
       <c r="B308" t="s">
         <v>29</v>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>20328981</v>
+        <v>20402840</v>
       </c>
       <c r="B309" t="s">
         <v>29</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>20321847</v>
+        <v>20328981</v>
       </c>
       <c r="B310" t="s">
         <v>29</v>
@@ -4642,18 +4639,18 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>60300189</v>
+        <v>20321847</v>
       </c>
       <c r="B311" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="C311" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>60400380</v>
+        <v>60300189</v>
       </c>
       <c r="B312" t="s">
         <v>244</v>
@@ -4664,18 +4661,18 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>10494574</v>
+        <v>60400380</v>
       </c>
       <c r="B313" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C313" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>10402106</v>
+        <v>10494574</v>
       </c>
       <c r="B314" t="s">
         <v>246</v>
@@ -4686,18 +4683,18 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>20541264</v>
+        <v>10402106</v>
       </c>
       <c r="B315" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C315" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>20505033</v>
+        <v>20541264</v>
       </c>
       <c r="B316" t="s">
         <v>248</v>
@@ -4708,29 +4705,29 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>30203491</v>
+        <v>20505033</v>
       </c>
       <c r="B317" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C317" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>20534398</v>
+        <v>30203491</v>
       </c>
       <c r="B318" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C318" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>20519278</v>
+        <v>20534398</v>
       </c>
       <c r="B319" t="s">
         <v>251</v>
@@ -4741,18 +4738,18 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>69852822</v>
+        <v>20519278</v>
       </c>
       <c r="B320" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C320" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>20268734</v>
+        <v>69852822</v>
       </c>
       <c r="B321" t="s">
         <v>252</v>
@@ -4763,7 +4760,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>69900547</v>
+        <v>20268734</v>
       </c>
       <c r="B322" t="s">
         <v>252</v>
@@ -4774,7 +4771,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>20317482</v>
+        <v>69900547</v>
       </c>
       <c r="B323" t="s">
         <v>252</v>
@@ -4785,18 +4782,18 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>20315656</v>
+        <v>20317482</v>
       </c>
       <c r="B324" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C324" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>20307716</v>
+        <v>20315656</v>
       </c>
       <c r="B325" t="s">
         <v>254</v>
@@ -4807,18 +4804,18 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>20237434</v>
+        <v>20307716</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="C326" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>20237408</v>
+        <v>20237434</v>
       </c>
       <c r="B327" t="s">
         <v>17</v>
@@ -4829,7 +4826,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>20307703</v>
+        <v>20237408</v>
       </c>
       <c r="B328" t="s">
         <v>17</v>
@@ -4839,8 +4836,8 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>273</v>
+      <c r="A329">
+        <v>20307703</v>
       </c>
       <c r="B329" t="s">
         <v>17</v>
@@ -4850,19 +4847,19 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>40401540</v>
+      <c r="A330" t="s">
+        <v>273</v>
       </c>
       <c r="B330" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="C330" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>40403566</v>
+        <v>40401540</v>
       </c>
       <c r="B331" t="s">
         <v>256</v>
@@ -4873,18 +4870,18 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>20280609</v>
+        <v>40403566</v>
       </c>
       <c r="B332" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C332" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>20247197</v>
+        <v>20280609</v>
       </c>
       <c r="B333" t="s">
         <v>257</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>20360536</v>
+        <v>20247197</v>
       </c>
       <c r="B334" t="s">
         <v>257</v>
@@ -4906,7 +4903,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>20311044</v>
+        <v>20360536</v>
       </c>
       <c r="B335" t="s">
         <v>257</v>
@@ -4917,18 +4914,18 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>20607823</v>
+        <v>20311044</v>
       </c>
       <c r="B336" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C336" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>69772584</v>
+        <v>20607823</v>
       </c>
       <c r="B337" t="s">
         <v>8</v>
@@ -4939,7 +4936,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>20247198</v>
+        <v>69772584</v>
       </c>
       <c r="B338" t="s">
         <v>8</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>20268221</v>
+        <v>20247198</v>
       </c>
       <c r="B339" t="s">
         <v>8</v>
@@ -4961,18 +4958,18 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>50100289</v>
+        <v>20268221</v>
       </c>
       <c r="B340" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="C340" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>50103727</v>
+        <v>50100289</v>
       </c>
       <c r="B341" t="s">
         <v>259</v>
@@ -4983,29 +4980,29 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>30103487</v>
+        <v>50103727</v>
       </c>
       <c r="B342" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C342" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>10220307</v>
+        <v>30103487</v>
       </c>
       <c r="B343" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C343" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>10260919</v>
+        <v>10220307</v>
       </c>
       <c r="B344" t="s">
         <v>263</v>
@@ -5016,18 +5013,18 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>60729364</v>
+        <v>10260919</v>
       </c>
       <c r="B345" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C345" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>20606819</v>
+        <v>60729364</v>
       </c>
       <c r="B346" t="s">
         <v>265</v>
@@ -5038,18 +5035,18 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>20607491</v>
+        <v>20606819</v>
       </c>
       <c r="B347" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C347" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>20607873</v>
+        <v>20607491</v>
       </c>
       <c r="B348" t="s">
         <v>267</v>
@@ -5060,7 +5057,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>20217802</v>
+        <v>20607873</v>
       </c>
       <c r="B349" t="s">
         <v>267</v>
@@ -5071,7 +5068,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>69934151</v>
+        <v>20217802</v>
       </c>
       <c r="B350" t="s">
         <v>267</v>
@@ -5082,18 +5079,18 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>20607837</v>
+        <v>69934151</v>
       </c>
       <c r="B351" t="s">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C351" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>20607834</v>
+        <v>20607837</v>
       </c>
       <c r="B352" t="s">
         <v>0</v>
@@ -5104,18 +5101,18 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>20228539</v>
+        <v>20607834</v>
       </c>
       <c r="B353" t="s">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="C353" t="s">
-        <v>270</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>20206225</v>
+        <v>20228539</v>
       </c>
       <c r="B354" t="s">
         <v>269</v>
@@ -5126,7 +5123,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>20339165</v>
+        <v>20206225</v>
       </c>
       <c r="B355" t="s">
         <v>269</v>
@@ -5137,7 +5134,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>20341206</v>
+        <v>20339165</v>
       </c>
       <c r="B356" t="s">
         <v>269</v>
@@ -5148,18 +5145,18 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>50203317</v>
+        <v>20341206</v>
       </c>
       <c r="B357" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C357" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>50219548</v>
+        <v>50203317</v>
       </c>
       <c r="B358" t="s">
         <v>271</v>
@@ -5168,9 +5165,20 @@
         <v>272</v>
       </c>
     </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>50219548</v>
+      </c>
+      <c r="B359" t="s">
+        <v>271</v>
+      </c>
+      <c r="C359" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C358">
-    <sortCondition ref="B2:B358"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C359">
+    <sortCondition ref="B2:B359"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/template_verifikator.xlsx
+++ b/public/template_verifikator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90DAFC1-872B-48D5-ACC7-8D556F0F8C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3243266A-7552-4949-BE35-4A733F9B6115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{FD37C477-75F5-457C-90DB-C3B8AD926BE6}"/>
   </bookViews>
@@ -24,8 +24,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="A121" authorId="0" shapeId="0" xr:uid="{5D52D7EA-2410-488A-BCDF-34F66A3034CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+AWALNYA SALAH NPSN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A322" authorId="0" shapeId="0" xr:uid="{A303359F-E6A9-4074-86F6-C1F0F061481C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+perubahan NPSN karena sebelumnya salah</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="279">
   <si>
     <t>Wikan Sakarinto, S.T., M.Sc., Ph.D.</t>
   </si>
@@ -868,7 +926,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,16 +935,35 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -894,12 +971,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,11 +1309,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549B1169-3AE7-47C2-8048-ADBB79311E45}">
-  <dimension ref="A1:C359"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549B1169-3AE7-47C2-8048-ADBB79311E45}">
+  <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,10 +2644,10 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>60726515</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="1">
+        <v>20221568</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C121" t="s">
@@ -2670,9 +2766,9 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>30312532</v>
-      </c>
-      <c r="B132" t="s">
+        <v>30303620</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C132" t="s">
@@ -4111,7 +4207,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>20606898</v>
+        <v>20402093</v>
       </c>
       <c r="B263" t="s">
         <v>27</v>
@@ -4122,7 +4218,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>20402093</v>
+        <v>20404182</v>
       </c>
       <c r="B264" t="s">
         <v>27</v>
@@ -4133,7 +4229,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>20404182</v>
+        <v>20401315</v>
       </c>
       <c r="B265" t="s">
         <v>27</v>
@@ -4144,7 +4240,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>20401315</v>
+        <v>20401304</v>
       </c>
       <c r="B266" t="s">
         <v>27</v>
@@ -4155,18 +4251,18 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>20401304</v>
+        <v>20407419</v>
       </c>
       <c r="B267" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>20407419</v>
+        <v>20402133</v>
       </c>
       <c r="B268" t="s">
         <v>211</v>
@@ -4177,7 +4273,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>20402133</v>
+        <v>20210716</v>
       </c>
       <c r="B269" t="s">
         <v>211</v>
@@ -4188,7 +4284,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>20210716</v>
+        <v>20253319</v>
       </c>
       <c r="B270" t="s">
         <v>211</v>
@@ -4199,18 +4295,18 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>20253319</v>
+        <v>69756184</v>
       </c>
       <c r="B271" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C271" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>69756184</v>
+        <v>20255776</v>
       </c>
       <c r="B272" t="s">
         <v>213</v>
@@ -4221,18 +4317,18 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>20255776</v>
+        <v>20209201</v>
       </c>
       <c r="B273" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C273" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>20209201</v>
+        <v>20262128</v>
       </c>
       <c r="B274" t="s">
         <v>215</v>
@@ -4243,7 +4339,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>20262128</v>
+        <v>20525592</v>
       </c>
       <c r="B275" t="s">
         <v>215</v>
@@ -4254,7 +4350,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>20525592</v>
+        <v>20525627</v>
       </c>
       <c r="B276" t="s">
         <v>215</v>
@@ -4265,18 +4361,18 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>20525627</v>
+        <v>20308436</v>
       </c>
       <c r="B277" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C277" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>20308436</v>
+        <v>20312177</v>
       </c>
       <c r="B278" t="s">
         <v>217</v>
@@ -4287,18 +4383,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>20312177</v>
+        <v>20216007</v>
       </c>
       <c r="B279" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C279" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>20216007</v>
+        <v>20216003</v>
       </c>
       <c r="B280" t="s">
         <v>219</v>
@@ -4309,7 +4405,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>20216003</v>
+        <v>20235643</v>
       </c>
       <c r="B281" t="s">
         <v>219</v>
@@ -4320,7 +4416,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>20235643</v>
+        <v>20208396</v>
       </c>
       <c r="B282" t="s">
         <v>219</v>
@@ -4331,29 +4427,29 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>20208396</v>
+        <v>30102474</v>
       </c>
       <c r="B283" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C283" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>30102474</v>
+        <v>20404181</v>
       </c>
       <c r="B284" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C284" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>20404181</v>
+        <v>20403285</v>
       </c>
       <c r="B285" t="s">
         <v>223</v>
@@ -4364,7 +4460,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>20403285</v>
+        <v>20212918</v>
       </c>
       <c r="B286" t="s">
         <v>223</v>
@@ -4375,18 +4471,18 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>20212918</v>
+        <v>10205204</v>
       </c>
       <c r="B287" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C287" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>10205204</v>
+        <v>10205190</v>
       </c>
       <c r="B288" t="s">
         <v>225</v>
@@ -4397,18 +4493,18 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>10205190</v>
+        <v>20402787</v>
       </c>
       <c r="B289" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C289" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>20402787</v>
+        <v>20409725</v>
       </c>
       <c r="B290" t="s">
         <v>227</v>
@@ -4419,7 +4515,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>20409725</v>
+        <v>20227940</v>
       </c>
       <c r="B291" t="s">
         <v>227</v>
@@ -4430,7 +4526,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>20227940</v>
+        <v>20267644</v>
       </c>
       <c r="B292" t="s">
         <v>227</v>
@@ -4441,29 +4537,29 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>20267644</v>
+        <v>50304779</v>
       </c>
       <c r="B293" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C293" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>50304779</v>
+        <v>20100166</v>
       </c>
       <c r="B294" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C294" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>20100166</v>
+        <v>20101648</v>
       </c>
       <c r="B295" t="s">
         <v>231</v>
@@ -4474,7 +4570,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>20101648</v>
+        <v>10308093</v>
       </c>
       <c r="B296" t="s">
         <v>231</v>
@@ -4485,29 +4581,29 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>10308093</v>
+        <v>60726235</v>
       </c>
       <c r="B297" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C297" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>60726235</v>
+        <v>10211092</v>
       </c>
       <c r="B298" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C298" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>10211092</v>
+        <v>10259305</v>
       </c>
       <c r="B299" t="s">
         <v>235</v>
@@ -4518,29 +4614,29 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>10259305</v>
+        <v>40307845</v>
       </c>
       <c r="B300" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C300" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>40307845</v>
+      <c r="A301" t="s">
+        <v>239</v>
       </c>
       <c r="B301" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C301" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>239</v>
+      <c r="A302">
+        <v>10102278</v>
       </c>
       <c r="B302" t="s">
         <v>240</v>
@@ -4551,7 +4647,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>10102278</v>
+        <v>20574699</v>
       </c>
       <c r="B303" t="s">
         <v>240</v>
@@ -4562,7 +4658,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>20574699</v>
+        <v>20511947</v>
       </c>
       <c r="B304" t="s">
         <v>240</v>
@@ -4573,18 +4669,18 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>20511947</v>
+        <v>20320251</v>
       </c>
       <c r="B305" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C305" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>20320251</v>
+        <v>20325272</v>
       </c>
       <c r="B306" t="s">
         <v>242</v>
@@ -4595,18 +4691,18 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>20325272</v>
+        <v>20303942</v>
       </c>
       <c r="B307" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="C307" t="s">
-        <v>243</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>20303942</v>
+        <v>20402840</v>
       </c>
       <c r="B308" t="s">
         <v>29</v>
@@ -4617,7 +4713,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>20402840</v>
+        <v>20328981</v>
       </c>
       <c r="B309" t="s">
         <v>29</v>
@@ -4628,7 +4724,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>20328981</v>
+        <v>20321847</v>
       </c>
       <c r="B310" t="s">
         <v>29</v>
@@ -4639,18 +4735,18 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>20321847</v>
+        <v>60300189</v>
       </c>
       <c r="B311" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="C311" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>60300189</v>
+        <v>60400380</v>
       </c>
       <c r="B312" t="s">
         <v>244</v>
@@ -4661,18 +4757,18 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>60400380</v>
+        <v>10494574</v>
       </c>
       <c r="B313" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C313" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>10494574</v>
+        <v>10402106</v>
       </c>
       <c r="B314" t="s">
         <v>246</v>
@@ -4683,18 +4779,18 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>10402106</v>
+        <v>20541264</v>
       </c>
       <c r="B315" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C315" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>20541264</v>
+        <v>20505033</v>
       </c>
       <c r="B316" t="s">
         <v>248</v>
@@ -4705,29 +4801,29 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>20505033</v>
+        <v>30203491</v>
       </c>
       <c r="B317" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C317" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>30203491</v>
+        <v>20534398</v>
       </c>
       <c r="B318" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C318" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>20534398</v>
+        <v>20519278</v>
       </c>
       <c r="B319" t="s">
         <v>251</v>
@@ -4738,18 +4834,18 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>20519278</v>
+        <v>69852822</v>
       </c>
       <c r="B320" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C320" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>69852822</v>
+        <v>20268734</v>
       </c>
       <c r="B321" t="s">
         <v>252</v>
@@ -4759,19 +4855,19 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>20268734</v>
-      </c>
-      <c r="B322" t="s">
+      <c r="A322" s="1">
+        <v>20352397</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>69900547</v>
+        <v>20317482</v>
       </c>
       <c r="B323" t="s">
         <v>252</v>
@@ -4782,18 +4878,18 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>20317482</v>
+        <v>20315656</v>
       </c>
       <c r="B324" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C324" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>20315656</v>
+        <v>20307716</v>
       </c>
       <c r="B325" t="s">
         <v>254</v>
@@ -4804,18 +4900,18 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>20307716</v>
+        <v>20237434</v>
       </c>
       <c r="B326" t="s">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="C326" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>20237434</v>
+        <v>20237408</v>
       </c>
       <c r="B327" t="s">
         <v>17</v>
@@ -4826,7 +4922,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>20237408</v>
+        <v>20307703</v>
       </c>
       <c r="B328" t="s">
         <v>17</v>
@@ -4836,8 +4932,8 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>20307703</v>
+      <c r="A329" t="s">
+        <v>273</v>
       </c>
       <c r="B329" t="s">
         <v>17</v>
@@ -4847,19 +4943,19 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>273</v>
+      <c r="A330">
+        <v>40401540</v>
       </c>
       <c r="B330" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="C330" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>40401540</v>
+        <v>40403566</v>
       </c>
       <c r="B331" t="s">
         <v>256</v>
@@ -4870,18 +4966,18 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>40403566</v>
+        <v>20280609</v>
       </c>
       <c r="B332" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C332" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>20280609</v>
+        <v>20247197</v>
       </c>
       <c r="B333" t="s">
         <v>257</v>
@@ -4892,7 +4988,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>20247197</v>
+        <v>20360536</v>
       </c>
       <c r="B334" t="s">
         <v>257</v>
@@ -4903,7 +4999,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>20360536</v>
+        <v>20311044</v>
       </c>
       <c r="B335" t="s">
         <v>257</v>
@@ -4914,18 +5010,18 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>20311044</v>
+        <v>20607823</v>
       </c>
       <c r="B336" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="C336" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>20607823</v>
+        <v>69772584</v>
       </c>
       <c r="B337" t="s">
         <v>8</v>
@@ -4936,7 +5032,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>69772584</v>
+        <v>20247198</v>
       </c>
       <c r="B338" t="s">
         <v>8</v>
@@ -4947,7 +5043,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>20247198</v>
+        <v>20268221</v>
       </c>
       <c r="B339" t="s">
         <v>8</v>
@@ -4958,18 +5054,18 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>20268221</v>
+        <v>50100289</v>
       </c>
       <c r="B340" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="C340" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>50100289</v>
+        <v>50103727</v>
       </c>
       <c r="B341" t="s">
         <v>259</v>
@@ -4980,29 +5076,29 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>50103727</v>
+        <v>30103487</v>
       </c>
       <c r="B342" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C342" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>30103487</v>
+        <v>10220307</v>
       </c>
       <c r="B343" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C343" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>10220307</v>
+        <v>10260919</v>
       </c>
       <c r="B344" t="s">
         <v>263</v>
@@ -5013,18 +5109,18 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>10260919</v>
+        <v>60729364</v>
       </c>
       <c r="B345" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C345" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>60729364</v>
+        <v>20606819</v>
       </c>
       <c r="B346" t="s">
         <v>265</v>
@@ -5035,18 +5131,18 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>20606819</v>
+        <v>20607491</v>
       </c>
       <c r="B347" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C347" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>20607491</v>
+        <v>20607873</v>
       </c>
       <c r="B348" t="s">
         <v>267</v>
@@ -5057,7 +5153,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>20607873</v>
+        <v>20217802</v>
       </c>
       <c r="B349" t="s">
         <v>267</v>
@@ -5068,7 +5164,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>20217802</v>
+        <v>69934151</v>
       </c>
       <c r="B350" t="s">
         <v>267</v>
@@ -5079,18 +5175,18 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>69934151</v>
+        <v>20607837</v>
       </c>
       <c r="B351" t="s">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="C351" t="s">
-        <v>268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>20607837</v>
+        <v>20607834</v>
       </c>
       <c r="B352" t="s">
         <v>0</v>
@@ -5101,18 +5197,18 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>20607834</v>
+        <v>20228539</v>
       </c>
       <c r="B353" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C353" t="s">
-        <v>1</v>
+        <v>270</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>20228539</v>
+        <v>20206225</v>
       </c>
       <c r="B354" t="s">
         <v>269</v>
@@ -5123,7 +5219,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>20206225</v>
+        <v>20339165</v>
       </c>
       <c r="B355" t="s">
         <v>269</v>
@@ -5134,7 +5230,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>20339165</v>
+        <v>20341206</v>
       </c>
       <c r="B356" t="s">
         <v>269</v>
@@ -5145,18 +5241,18 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>20341206</v>
+        <v>50203317</v>
       </c>
       <c r="B357" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C357" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>50203317</v>
+        <v>50219548</v>
       </c>
       <c r="B358" t="s">
         <v>271</v>
@@ -5165,21 +5261,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>50219548</v>
-      </c>
-      <c r="B359" t="s">
-        <v>271</v>
-      </c>
-      <c r="C359" t="s">
-        <v>272</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C359">
-    <sortCondition ref="B2:B359"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C358">
+    <sortCondition ref="B2:B358"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/template_verifikator.xlsx
+++ b/public/template_verifikator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3243266A-7552-4949-BE35-4A733F9B6115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F3DDC-C3E9-43A9-856C-E0C8C698CCD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{FD37C477-75F5-457C-90DB-C3B8AD926BE6}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="280">
   <si>
     <t>Wikan Sakarinto, S.T., M.Sc., Ph.D.</t>
   </si>
@@ -920,6 +920,9 @@
   </si>
   <si>
     <t>Iis Nurhayani</t>
+  </si>
+  <si>
+    <t>Sigit Ardiyanto</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549B1169-3AE7-47C2-8048-ADBB79311E45}">
-  <dimension ref="A1:C358"/>
+  <dimension ref="A1:C360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection sqref="A1:C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>20300690</v>
+        <v>20360301</v>
       </c>
       <c r="B143" t="s">
         <v>140</v>
@@ -2898,7 +2901,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>20300693</v>
+        <v>69756191</v>
       </c>
       <c r="B144" t="s">
         <v>140</v>
@@ -5259,6 +5262,28 @@
       </c>
       <c r="C358" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>20258507</v>
+      </c>
+      <c r="B359" t="s">
+        <v>279</v>
+      </c>
+      <c r="C359" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>20276402</v>
+      </c>
+      <c r="B360" t="s">
+        <v>279</v>
+      </c>
+      <c r="C360" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
